--- a/resources/ID Epi Course List.xlsx
+++ b/resources/ID Epi Course List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Institution</t>
   </si>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t>https://www.bu.edu/academics/sph/courses/sph-ep-755/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">colleagues to check: Shweta Bansal, Marc Lipsitch, Justin Lessler, Ben Lopman, Kaja Abbas, Virginia Tech
+Marc Lipsitch
+Shweta Bansal
+Pej/John/Andrew in Ecology
+Justin Lessler at Hopkins
+Allison Galvani at Yale
+Lauren Meyers at Texas
+Penn State – Matt Ferrari &amp; Co 
+U Hongkong - 
+</t>
   </si>
 </sst>
 </file>
@@ -195,9 +207,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,7 +520,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,6 +757,11 @@
         <v>45</v>
       </c>
     </row>
+    <row r="21" spans="1:1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
